--- a/artfynd/A 63236-2020.xlsx
+++ b/artfynd/A 63236-2020.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY2"/>
+  <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -794,6 +794,127 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>112182344</v>
+      </c>
+      <c r="B3" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>V Sjulsmark, Vb</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>772246.1042297806</v>
+      </c>
+      <c r="R3" t="n">
+        <v>7120216.521026484</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Robertsfors</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Bygdeå</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2023-09-07</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2023-09-07</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+        </is>
+      </c>
+      <c r="AD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 63236-2020.xlsx
+++ b/artfynd/A 63236-2020.xlsx
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>772246.1042297806</v>
+        <v>772246</v>
       </c>
       <c r="R3" t="n">
-        <v>7120216.521026484</v>
+        <v>7120217</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -873,19 +873,9 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-09-07</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">

--- a/artfynd/A 63236-2020.xlsx
+++ b/artfynd/A 63236-2020.xlsx
@@ -799,7 +799,7 @@
         <v>112182344</v>
       </c>
       <c r="B3" t="n">
-        <v>77515</v>
+        <v>77636</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>

--- a/artfynd/A 63236-2020.xlsx
+++ b/artfynd/A 63236-2020.xlsx
@@ -799,7 +799,7 @@
         <v>112182344</v>
       </c>
       <c r="B3" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
